--- a/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试用例/前端WEB+后台管理/卓师测试用例_9.15.xlsx
+++ b/程序员客栈项目/因卓科技教育平台/因卓教育阶段一测试用例/前端WEB+后台管理/卓师测试用例_9.15.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\个人文件\其他测试\因卓科技教育平台\2017.9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\33_OpenSource\part-time-job\程序员客栈项目\因卓科技教育平台\因卓教育阶段一测试用例\前端WEB+后台管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27975" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27972" windowHeight="10872"/>
   </bookViews>
   <sheets>
     <sheet name="后台_登录注册" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="496">
   <si>
     <t>所属模块</t>
   </si>
@@ -2706,11 +2706,19 @@
     <t>1、系统根据选择的科目，正确查询出科目下所有的版本数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息保持和原型描述一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -2967,6 +2975,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2979,15 +2990,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2997,9 +2999,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -3432,23 +3440,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="18" customWidth="1"/>
     <col min="6" max="6" width="40" style="16" customWidth="1"/>
     <col min="7" max="7" width="40" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="8" max="8" width="12.109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3473,16 +3482,18 @@
       <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>494</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3506,9 +3517,9 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3530,9 +3541,9 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:12" ht="96" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3549,14 +3560,16 @@
         <v>29</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>495</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3580,9 +3593,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3604,9 +3617,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="180" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:12" ht="228" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3628,8 +3641,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
       <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
@@ -3654,9 +3667,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3680,9 +3693,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="44"/>
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
@@ -3700,9 +3713,9 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="156" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="45"/>
+    <row r="11" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
@@ -3720,8 +3733,8 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
+    <row r="12" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
       <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
@@ -3742,52 +3755,52 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="20"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
     </row>
   </sheetData>
@@ -3822,7 +3835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3837,16 +3850,16 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="40.75" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3872,11 +3885,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3896,9 +3909,9 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -3916,9 +3929,9 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+    <row r="4" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -3936,9 +3949,9 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="44" t="s">
         <v>68</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3958,9 +3971,9 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -3978,9 +3991,9 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" ht="204" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
+    <row r="7" spans="1:8" ht="240" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3998,8 +4011,8 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
       <c r="B8" s="5" t="s">
         <v>69</v>
       </c>
@@ -4020,9 +4033,9 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4042,9 +4055,9 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
@@ -4062,9 +4075,9 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="168" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
+    <row r="11" spans="1:8" ht="192" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
@@ -4082,8 +4095,8 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
@@ -4104,9 +4117,9 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
-      <c r="B13" s="47" t="s">
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -4126,9 +4139,9 @@
       </c>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="21" t="s">
         <v>14</v>
       </c>
@@ -4146,7 +4159,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="26" t="s">
         <v>74</v>
       </c>
@@ -4184,7 +4197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4199,20 +4212,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4242,8 +4255,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -4270,8 +4283,8 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
       <c r="B3" s="5" t="s">
         <v>82</v>
       </c>
@@ -4296,9 +4309,9 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="44" t="s">
         <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4322,9 +4335,9 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
+    <row r="5" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4346,8 +4359,8 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
       <c r="B6" s="28" t="s">
         <v>99</v>
       </c>
@@ -4372,9 +4385,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="44" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -4398,9 +4411,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:12" ht="156" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="19" t="s">
         <v>8</v>
       </c>
@@ -4422,9 +4435,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="43" t="s">
+    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4448,9 +4461,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
@@ -4472,8 +4485,8 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
       <c r="B11" s="5" t="s">
         <v>118</v>
       </c>
@@ -4494,52 +4507,52 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
     </row>
   </sheetData>
@@ -4576,20 +4589,20 @@
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="39.77734375" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4619,11 +4632,11 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -4647,9 +4660,9 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4671,9 +4684,9 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4695,9 +4708,9 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4719,9 +4732,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
@@ -4743,9 +4756,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
+    <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="19" t="s">
         <v>7</v>
       </c>
@@ -4767,9 +4780,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="43" t="s">
+    <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="44" t="s">
         <v>137</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -4793,9 +4806,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>9</v>
       </c>
@@ -4817,9 +4830,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="19" t="s">
         <v>10</v>
       </c>
@@ -4841,8 +4854,8 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="19" t="s">
         <v>152</v>
       </c>
@@ -4863,8 +4876,8 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:12" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="19" t="s">
         <v>156</v>
       </c>
@@ -4885,8 +4898,8 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:12" ht="96" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="19" t="s">
         <v>162</v>
       </c>
@@ -4907,8 +4920,8 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="19" t="s">
         <v>166</v>
       </c>
@@ -4929,8 +4942,8 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
       <c r="B15" s="19" t="s">
         <v>168</v>
       </c>
@@ -4951,8 +4964,8 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
       <c r="B16" s="19" t="s">
         <v>171</v>
       </c>
@@ -5006,20 +5019,20 @@
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5049,8 +5062,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -5077,8 +5090,8 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
       <c r="B3" s="27" t="s">
         <v>182</v>
       </c>
@@ -5103,8 +5116,8 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
       <c r="B4" s="27" t="s">
         <v>185</v>
       </c>
@@ -5129,8 +5142,8 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
       <c r="B5" s="27" t="s">
         <v>188</v>
       </c>
@@ -5155,8 +5168,8 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
       <c r="B6" s="27" t="s">
         <v>190</v>
       </c>
@@ -5181,8 +5194,8 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:12" ht="144" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" s="27" t="s">
         <v>192</v>
       </c>
@@ -5207,8 +5220,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
       <c r="B8" s="27" t="s">
         <v>196</v>
       </c>
@@ -5264,20 +5277,20 @@
       <selection pane="bottomLeft" activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="12" customWidth="1"/>
     <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5307,8 +5320,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -5335,8 +5348,8 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
       <c r="B3" s="27" t="s">
         <v>182</v>
       </c>
@@ -5361,8 +5374,8 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
       <c r="B4" s="27" t="s">
         <v>185</v>
       </c>
@@ -5387,8 +5400,8 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
+    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
       <c r="B5" s="27" t="s">
         <v>188</v>
       </c>
@@ -5413,8 +5426,8 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
+    <row r="6" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
       <c r="B6" s="27" t="s">
         <v>190</v>
       </c>
@@ -5439,9 +5452,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="44" t="s">
         <v>192</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -5465,9 +5478,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
+    <row r="8" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
@@ -5489,8 +5502,8 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
       <c r="B9" s="27" t="s">
         <v>196</v>
       </c>
@@ -5547,21 +5560,21 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5591,8 +5604,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -5619,9 +5632,9 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="44" t="s">
         <v>236</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5645,9 +5658,9 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5669,9 +5682,9 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+    <row r="5" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5693,9 +5706,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="28" t="s">
         <v>6</v>
       </c>
@@ -5719,9 +5732,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="44" t="s">
         <v>252</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -5745,9 +5758,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="22" t="s">
         <v>8</v>
       </c>
@@ -5769,9 +5782,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+    <row r="9" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="27" t="s">
         <v>9</v>
       </c>
@@ -5793,9 +5806,9 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5813,8 +5826,8 @@
       </c>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A11" s="44"/>
+    <row r="11" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
       <c r="B11" s="34" t="s">
         <v>264</v>
       </c>
@@ -5835,8 +5848,8 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
       <c r="B12" s="34" t="s">
         <v>266</v>
       </c>
@@ -5857,8 +5870,8 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A13" s="44"/>
+    <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
       <c r="B13" s="34" t="s">
         <v>272</v>
       </c>
@@ -5879,8 +5892,8 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A14" s="44"/>
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
       <c r="B14" s="34" t="s">
         <v>276</v>
       </c>
@@ -5901,9 +5914,9 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A15" s="44"/>
-      <c r="B15" s="43" t="s">
+    <row r="15" spans="1:12" ht="96" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="44" t="s">
         <v>279</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -5923,9 +5936,9 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
+    <row r="16" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="34" t="s">
         <v>140</v>
       </c>
@@ -5943,8 +5956,8 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
+    <row r="17" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+      <c r="A17" s="46"/>
       <c r="B17" s="34" t="s">
         <v>288</v>
       </c>
@@ -5998,21 +6011,21 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6042,11 +6055,11 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>308</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6070,9 +6083,9 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+    <row r="3" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -6094,9 +6107,9 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6118,9 +6131,9 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+    <row r="5" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6142,9 +6155,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="108" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:12" ht="132" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -6166,9 +6179,9 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="96" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -6192,9 +6205,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
@@ -6216,8 +6229,8 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="180" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
+    <row r="9" spans="1:12" ht="204" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
       <c r="B9" s="36" t="s">
         <v>319</v>
       </c>
@@ -6242,8 +6255,8 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
       <c r="B10" s="36" t="s">
         <v>314</v>
       </c>
@@ -6268,11 +6281,11 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A11" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>324</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6296,9 +6309,9 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="44"/>
+    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
@@ -6316,9 +6329,9 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="45"/>
+    <row r="13" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A13" s="47"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
@@ -6372,21 +6385,21 @@
       <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="44" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6416,8 +6429,8 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>333</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -6444,8 +6457,8 @@
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A3" s="44"/>
+    <row r="3" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A3" s="45"/>
       <c r="B3" s="41" t="s">
         <v>156</v>
       </c>
@@ -6470,8 +6483,8 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
+    <row r="4" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
       <c r="B4" s="41" t="s">
         <v>337</v>
       </c>
@@ -6496,8 +6509,8 @@
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
       <c r="B5" s="41" t="s">
         <v>344</v>
       </c>
@@ -6522,8 +6535,8 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>347</v>
       </c>
       <c r="B6" s="41" t="s">
@@ -6550,8 +6563,8 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
       <c r="B7" s="41" t="s">
         <v>156</v>
       </c>
@@ -6576,8 +6589,8 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A8" s="44"/>
+    <row r="8" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" s="45"/>
       <c r="B8" s="41" t="s">
         <v>350</v>
       </c>
@@ -6602,8 +6615,8 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
       <c r="B9" s="41" t="s">
         <v>358</v>
       </c>
@@ -6628,8 +6641,8 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>392</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -6655,8 +6668,8 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
       <c r="B11" s="41" t="s">
         <v>374</v>
       </c>
@@ -6666,7 +6679,7 @@
       <c r="D11" s="39" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -6677,8 +6690,8 @@
       </c>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
       <c r="B12" s="41" t="s">
         <v>380</v>
       </c>
@@ -6688,7 +6701,7 @@
       <c r="D12" s="39" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F12" s="14" t="s">
@@ -6699,8 +6712,8 @@
       </c>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
       <c r="B13" s="41" t="s">
         <v>384</v>
       </c>
@@ -6710,7 +6723,7 @@
       <c r="D13" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -6721,8 +6734,8 @@
       </c>
       <c r="H13" s="41"/>
     </row>
-    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
+    <row r="14" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
       <c r="B14" s="41" t="s">
         <v>385</v>
       </c>
@@ -6732,7 +6745,7 @@
       <c r="D14" s="39" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="43" t="s">
         <v>377</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -6743,8 +6756,8 @@
       </c>
       <c r="H14" s="41"/>
     </row>
-    <row r="15" spans="1:12" ht="84" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
+    <row r="15" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
       <c r="B15" s="41" t="s">
         <v>390</v>
       </c>
@@ -6765,8 +6778,8 @@
       </c>
       <c r="H15" s="41"/>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>393</v>
       </c>
       <c r="B16" s="41" t="s">
@@ -6789,8 +6802,8 @@
       </c>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="A17" s="44"/>
+    <row r="17" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
       <c r="B17" s="41" t="s">
         <v>399</v>
       </c>
@@ -6811,8 +6824,8 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" ht="132" x14ac:dyDescent="0.15">
-      <c r="A18" s="44"/>
+    <row r="18" spans="1:8" ht="144" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
       <c r="B18" s="41" t="s">
         <v>401</v>
       </c>
@@ -6833,8 +6846,8 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A19" s="44"/>
+    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
       <c r="B19" s="41" t="s">
         <v>405</v>
       </c>
@@ -6855,8 +6868,8 @@
       </c>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A20" s="44"/>
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
       <c r="B20" s="41" t="s">
         <v>408</v>
       </c>
@@ -6877,8 +6890,8 @@
       </c>
       <c r="H20" s="41"/>
     </row>
-    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="A21" s="44"/>
+    <row r="21" spans="1:8" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
       <c r="B21" s="22" t="s">
         <v>411</v>
       </c>
@@ -6899,8 +6912,8 @@
       </c>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
       <c r="B22" s="41" t="s">
         <v>414</v>
       </c>
@@ -6921,8 +6934,8 @@
       </c>
       <c r="H22" s="41"/>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
         <v>419</v>
       </c>
       <c r="B23" s="41" t="s">
@@ -6945,8 +6958,8 @@
       </c>
       <c r="H23" s="41"/>
     </row>
-    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
       <c r="B24" s="41" t="s">
         <v>423</v>
       </c>
@@ -6967,8 +6980,8 @@
       </c>
       <c r="H24" s="41"/>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
       <c r="B25" s="41" t="s">
         <v>426</v>
       </c>
@@ -6989,8 +7002,8 @@
       </c>
       <c r="H25" s="41"/>
     </row>
-    <row r="26" spans="1:8" ht="108" x14ac:dyDescent="0.15">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
       <c r="B26" s="41" t="s">
         <v>399</v>
       </c>
@@ -7011,8 +7024,8 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8" ht="132" x14ac:dyDescent="0.15">
-      <c r="A27" s="44"/>
+    <row r="27" spans="1:8" ht="144" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
       <c r="B27" s="41" t="s">
         <v>432</v>
       </c>
@@ -7033,8 +7046,8 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
       <c r="B28" s="41" t="s">
         <v>405</v>
       </c>
@@ -7055,8 +7068,8 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" spans="1:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
       <c r="B29" s="41" t="s">
         <v>451</v>
       </c>
@@ -7077,8 +7090,8 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" spans="1:8" ht="120" x14ac:dyDescent="0.15">
-      <c r="A30" s="44"/>
+    <row r="30" spans="1:8" ht="156" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
       <c r="B30" s="41" t="s">
         <v>455</v>
       </c>
@@ -7099,8 +7112,8 @@
       </c>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" spans="1:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="A31" s="44"/>
+    <row r="31" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
       <c r="B31" s="41" t="s">
         <v>462</v>
       </c>
@@ -7121,8 +7134,8 @@
       </c>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A32" s="44"/>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
       <c r="B32" s="42" t="s">
         <v>467</v>
       </c>
@@ -7143,8 +7156,8 @@
       </c>
       <c r="H32" s="42"/>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="B33" s="42" t="s">
         <v>385</v>
       </c>
@@ -7165,8 +7178,8 @@
       </c>
       <c r="H33" s="42"/>
     </row>
-    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A34" s="43" t="s">
+    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A34" s="44" t="s">
         <v>474</v>
       </c>
       <c r="B34" s="42" t="s">
@@ -7189,8 +7202,8 @@
       </c>
       <c r="H34" s="42"/>
     </row>
-    <row r="35" spans="1:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="A35" s="44"/>
+    <row r="35" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
       <c r="B35" s="42" t="s">
         <v>477</v>
       </c>
@@ -7211,8 +7224,8 @@
       </c>
       <c r="H35" s="42"/>
     </row>
-    <row r="36" spans="1:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
+    <row r="36" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A36" s="45"/>
       <c r="B36" s="42" t="s">
         <v>401</v>
       </c>
@@ -7233,8 +7246,8 @@
       </c>
       <c r="H36" s="42"/>
     </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
       <c r="B37" s="42" t="s">
         <v>480</v>
       </c>
@@ -7255,8 +7268,8 @@
       </c>
       <c r="H37" s="42"/>
     </row>
-    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
+    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
       <c r="B38" s="42" t="s">
         <v>489</v>
       </c>
@@ -7311,7 +7324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
